--- a/Calculos TUTI.xlsx
+++ b/Calculos TUTI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1F583-1129-4A4D-A3BF-FD54BC06BC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69273454-46A5-4EE2-AC7E-71B9B0D0A69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EACAD42-BA7F-49AA-A0F9-421173A3E346}"/>
+    <workbookView minimized="1" xWindow="3975" yWindow="3975" windowWidth="21600" windowHeight="10980" xr2:uid="{9EACAD42-BA7F-49AA-A0F9-421173A3E346}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuti" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Empresas de Retail Alimentario</t>
   </si>
@@ -155,6 +155,21 @@
   <si>
     <t>Tabla Arriba</t>
   </si>
+  <si>
+    <t>Impacto en POS</t>
+  </si>
+  <si>
+    <t>POS 2024</t>
+  </si>
+  <si>
+    <t>Total comisiones de tarjetas</t>
+  </si>
+  <si>
+    <t>Impacto de empresas de retail alimentario con medios de pago digitales en el POS</t>
+  </si>
+  <si>
+    <t>Impacto TUTI con medio de pago digital pronosticado en el POS</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +254,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -326,6 +347,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -333,7 +427,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,31 +441,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,15 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,14 +476,41 @@
     <xf numFmtId="43" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,11 +521,73 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3365,10 +3518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F83C35B-1F0C-471B-91AD-D30A8BDFBB4A}">
-  <dimension ref="B2:L73"/>
+  <dimension ref="B2:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,20 +3540,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2">
         <v>2019</v>
       </c>
@@ -3562,73 +3715,73 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="2">
         <v>2022</v>
       </c>
@@ -3736,22 +3889,22 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="7"/>
       <c r="F29" s="3"/>
     </row>
@@ -3872,72 +4025,72 @@
       <c r="F38" s="3"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K46" s="36" t="s">
+      <c r="K46" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="19">
         <v>0.77510000000000001</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="9">
         <v>0.75009999999999999</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="9">
         <v>0.24990000000000001</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="9">
         <v>4.02E-2</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="9">
         <v>0.02</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K47" s="15" t="s">
+      <c r="K47" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="15" t="s">
+      <c r="L47" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
@@ -3946,25 +4099,25 @@
       <c r="C49" s="4">
         <v>2546101459.75</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="11">
         <v>1973483241.452225</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="11">
         <v>572618218.29777503</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="11">
         <v>429520925.54516101</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="11">
         <v>143097292.75261399</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="12">
         <v>17266741.206915475</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="12">
         <v>2861945.8550522798</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="11">
         <v>20128687.061967757</v>
       </c>
       <c r="K49" s="4">
@@ -3981,25 +4134,25 @@
       <c r="C50" s="4">
         <v>1570185672.02</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="11">
         <v>1217050914.3827021</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="11">
         <v>353134757.63729799</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="11">
         <v>264886381.70373723</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="11">
         <v>88248375.933560774</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="12">
         <v>10648432.544490237</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="12">
         <v>1764967.5186712155</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="11">
         <v>12413400.063161451</v>
       </c>
       <c r="K50" s="4">
@@ -4016,25 +4169,25 @@
       <c r="C51" s="4">
         <v>754405497</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="11">
         <v>584739700.72469997</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="11">
         <v>169665796.2753</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="11">
         <v>127266313.78610252</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="11">
         <v>42399482.48919747</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="12">
         <v>5116105.8142013215</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="12">
         <v>847989.64978394937</v>
       </c>
-      <c r="J51" s="31">
+      <c r="J51" s="21">
         <v>5964095.4639852708</v>
       </c>
       <c r="K51" s="4">
@@ -4051,25 +4204,25 @@
       <c r="C52" s="4">
         <v>527892328.87</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="11">
         <v>409169344.10713702</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="11">
         <v>118722984.762863</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="11">
         <v>89054110.870623529</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="11">
         <v>29668873.892239463</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="12">
         <v>3579975.2569990656</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="12">
         <v>593377.47784478927</v>
       </c>
-      <c r="J52" s="31">
+      <c r="J52" s="21">
         <v>4173352.7348438548</v>
       </c>
       <c r="K52" s="4">
@@ -4086,25 +4239,25 @@
       <c r="C53" s="4">
         <v>237964565.18000001</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="11">
         <v>184446334.47101802</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="11">
         <v>53518230.708981998</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="11">
         <v>40144024.854807399</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="11">
         <v>13374205.854174603</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="12">
         <v>1613789.7991632575</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="12">
         <v>267484.11708349205</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="11">
         <v>1881273.9162467495</v>
       </c>
       <c r="K53" s="4">
@@ -4115,97 +4268,124 @@
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J54" s="20">
+      <c r="E54" s="51">
+        <f>SUM(E49:E53)</f>
+        <v>1267659987.6822178</v>
+      </c>
+      <c r="J54" s="13">
         <f>SUM(J49:J53)</f>
         <v>44560809.240205087</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22" t="s">
+      <c r="D56" s="27"/>
+      <c r="E56" s="28" t="s">
         <v>24</v>
       </c>
+      <c r="L56" s="50" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
-      <c r="C57" s="23" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="24"/>
+      <c r="E57" s="29"/>
+      <c r="J57" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="43">
+        <v>12207088440</v>
+      </c>
+      <c r="L57" s="46">
+        <f>K58/K57</f>
+        <v>3.6504043907955078E-3</v>
+      </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="28">
+      <c r="B58" s="18">
         <v>2021</v>
       </c>
-      <c r="C58" s="25">
+      <c r="C58" s="15">
         <v>10526.1</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="15">
         <v>3426</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="16">
         <f>C58+D58</f>
         <v>13952.1</v>
       </c>
+      <c r="J58" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="44">
+        <v>44560809.240205087</v>
+      </c>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="28">
+      <c r="B59" s="18">
         <v>2022</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="15">
         <v>12752.1</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="15">
         <v>4163.2</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="16">
         <f t="shared" ref="E59:E62" si="2">C59+D59</f>
         <v>16915.3</v>
       </c>
+      <c r="J59" s="49"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="47"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="28">
+      <c r="B60" s="18">
         <v>2023</v>
       </c>
-      <c r="C60" s="25">
+      <c r="C60" s="15">
         <v>14697.6</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="15">
         <v>5065.6000000000004</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="16">
         <f t="shared" si="2"/>
         <v>19763.2</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="23">
         <f>SUM(C58:C60)</f>
         <v>37975.800000000003</v>
       </c>
-      <c r="D61" s="33">
+      <c r="D61" s="23">
         <f>SUM(D58:D60)</f>
         <v>12654.8</v>
       </c>
-      <c r="E61" s="41">
+      <c r="E61" s="25">
         <f t="shared" si="2"/>
         <v>50630.600000000006</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C62" s="5">
@@ -4221,47 +4401,128 @@
         <v>1</v>
       </c>
     </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="52"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+    </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="B64" s="52"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="52"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="60">
+        <f>E54/K57</f>
+        <v>0.10384621967088967</v>
+      </c>
+      <c r="E66" s="53"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="61"/>
+      <c r="C67" s="62"/>
+      <c r="E67" s="53"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="61"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+    </row>
+    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="56">
+        <f>-E24*0.2249/K57</f>
+        <v>-1.2772076247672865E-2</v>
+      </c>
+      <c r="E69" s="53"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="57"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="53"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="54"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="53"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="52"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>34</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D74" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E74" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>35</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D75" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E75" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C82" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C83" s="17" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="23">
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B11:H16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="L47:L48"/>
@@ -4270,20 +4531,13 @@
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="J47:J48"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="B11:H16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="L57:L59"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C72" r:id="rId1" xr:uid="{898ACB3C-EADE-4D5D-A1B6-CB7984BD079C}"/>
-    <hyperlink ref="C73" r:id="rId2" xr:uid="{4765E5A8-A3C4-4224-B434-AF6D748D1854}"/>
-    <hyperlink ref="E64" r:id="rId3" xr:uid="{85BD1160-3275-4632-A624-1F88B7B61263}"/>
-    <hyperlink ref="E65" r:id="rId4" xr:uid="{9E7C5AC3-3476-44BE-A810-442E087E6E07}"/>
+    <hyperlink ref="C82" r:id="rId1" xr:uid="{898ACB3C-EADE-4D5D-A1B6-CB7984BD079C}"/>
+    <hyperlink ref="C83" r:id="rId2" xr:uid="{4765E5A8-A3C4-4224-B434-AF6D748D1854}"/>
+    <hyperlink ref="E74" r:id="rId3" xr:uid="{85BD1160-3275-4632-A624-1F88B7B61263}"/>
+    <hyperlink ref="E75" r:id="rId4" xr:uid="{9E7C5AC3-3476-44BE-A810-442E087E6E07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
